--- a/src/product_import_template.xlsx
+++ b/src/product_import_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>كريم كراميل</t>
   </si>
   <si>
-    <t>حلو مشكل</t>
-  </si>
-  <si>
     <t>كنافة مانجا نوتيلا</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>برجر سادة</t>
   </si>
   <si>
-    <t>برجر جبنة أو بيض</t>
-  </si>
-  <si>
     <t>برجر مكس</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>ليمون نعناع</t>
   </si>
   <si>
-    <t>كوكتيل</t>
-  </si>
-  <si>
     <t>مانجا باشون</t>
   </si>
   <si>
@@ -366,21 +357,6 @@
     <t>نسكافيه</t>
   </si>
   <si>
-    <t>قهوة تركي</t>
-  </si>
-  <si>
-    <t>قهوة فرنساوي</t>
-  </si>
-  <si>
-    <t>اسبريسو</t>
-  </si>
-  <si>
-    <t>ميكاتو</t>
-  </si>
-  <si>
-    <t>كورتادو</t>
-  </si>
-  <si>
     <t>فلات وايت</t>
   </si>
   <si>
@@ -393,9 +369,6 @@
     <t>موكا</t>
   </si>
   <si>
-    <t>قهوة بندق</t>
-  </si>
-  <si>
     <t>صودا</t>
   </si>
   <si>
@@ -408,15 +381,6 @@
     <t>شويبس</t>
   </si>
   <si>
-    <t>بيبسي</t>
-  </si>
-  <si>
-    <t>ميرندا</t>
-  </si>
-  <si>
-    <t>سفن</t>
-  </si>
-  <si>
     <t>ريد بول</t>
   </si>
   <si>
@@ -459,9 +423,6 @@
     <t>شوربة</t>
   </si>
   <si>
-    <t>عصائر طازجة</t>
-  </si>
-  <si>
     <t>كوكتيلات</t>
   </si>
   <si>
@@ -490,6 +451,72 @@
   </si>
   <si>
     <t>صواني</t>
+  </si>
+  <si>
+    <t>سي فوود</t>
+  </si>
+  <si>
+    <t>فاهيتا (لحم او فراخ)</t>
+  </si>
+  <si>
+    <t>برجر (جبنة أو بيض)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصائر فريش </t>
+  </si>
+  <si>
+    <t>عصائر فريش</t>
+  </si>
+  <si>
+    <t>كوكتيلي</t>
+  </si>
+  <si>
+    <t>حلو مشكل S</t>
+  </si>
+  <si>
+    <t>حلو مشكل L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> توركي S</t>
+  </si>
+  <si>
+    <t>توركي L</t>
+  </si>
+  <si>
+    <t>فرنساوي</t>
+  </si>
+  <si>
+    <t>اسبرسو S</t>
+  </si>
+  <si>
+    <t>اسبرسو L</t>
+  </si>
+  <si>
+    <t>ميكاتو S</t>
+  </si>
+  <si>
+    <t>ميكاتو L</t>
+  </si>
+  <si>
+    <t>بندق</t>
+  </si>
+  <si>
+    <t>الاضافات</t>
+  </si>
+  <si>
+    <t>لبن</t>
+  </si>
+  <si>
+    <t>مكسرات</t>
+  </si>
+  <si>
+    <t>صوص</t>
+  </si>
+  <si>
+    <t>فاوكة</t>
+  </si>
+  <si>
+    <t>ايس كريم اضافات</t>
   </si>
 </sst>
 </file>
@@ -844,18 +871,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D143"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -881,582 +908,582 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C16">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C41">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C45">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C46">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>1275</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>1250</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>1400</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C51">
-        <v>55</v>
+        <v>1900</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>1950</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
         <v>147</v>
@@ -1464,984 +1491,1062 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C56">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C58">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C59">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C60">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C61">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C63">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C64">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C65">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66">
         <v>85</v>
       </c>
-      <c r="C66">
-        <v>70</v>
-      </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C67">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C68">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C69">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C72">
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C77">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C78">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C79">
         <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C80">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C81">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C82">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C83">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C86">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C88">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C89">
         <v>65</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C91">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C92">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C93">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C94">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C95">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C96">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C97">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C99">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C100">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C101">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C102">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C103">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C104">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C105">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C106">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107">
+        <v>40</v>
+      </c>
+      <c r="D107" t="s">
         <v>138</v>
-      </c>
-      <c r="C107">
-        <v>15</v>
-      </c>
-      <c r="D107" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C109">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="C110">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C111">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="C112">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="C113">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C114">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D119" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D121" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C123">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D123" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C124">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D124" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C125">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C126">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C129">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D129" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C131">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C132">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C133">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C134">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D134" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C135">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D135" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="C138">
-        <v>1275</v>
+        <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C139">
-        <v>1250</v>
+        <v>100</v>
       </c>
       <c r="D139" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C140">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C141">
-        <v>1900</v>
+        <v>60</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C142">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C143">
-        <v>1950</v>
+        <v>135</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>